--- a/App_TestWithdrawFund/test.xlsx
+++ b/App_TestWithdrawFund/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\123Pay\App_TestWithdrawFund\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuti\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="168">
   <si>
     <t>STT</t>
   </si>
@@ -617,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -655,6 +655,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2256,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L706"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E10" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -7813,10 +7814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7824,13 +7825,13 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="8" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7849,17 +7850,18 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="16"/>
+      <c r="L1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -7877,17 +7879,24 @@
         <v>136</v>
       </c>
       <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
         <v>136</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" t="s">
         <v>139</v>
       </c>
@@ -7901,22 +7910,28 @@
         <v>100000</v>
       </c>
       <c r="I3">
+        <v>11223344</v>
+      </c>
+      <c r="J3">
         <v>100000</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/App_TestWithdrawFund/test.xlsx
+++ b/App_TestWithdrawFund/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\123Pay\App_TestWithdrawFund\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuti\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,15 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="48">
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>KQ Mong muốn</t>
-  </si>
-  <si>
-    <t>KQ Thực tế</t>
   </si>
   <si>
     <t>API</t>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t>T160712KWQZ09Q8s</t>
-  </si>
-  <si>
-    <t>6206</t>
   </si>
   <si>
     <t>KQ</t>
@@ -142,12 +133,6 @@
     <t>112233462</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>6100</t>
-  </si>
-  <si>
     <t>Data Request</t>
   </si>
   <si>
@@ -161,9 +146,6 @@
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>api</t>
   </si>
   <si>
     <t>Name Sheet</t>
@@ -183,12 +165,19 @@
   <si>
     <t>http://10.30.17.21:8076/withdrawFunds</t>
   </si>
+  <si>
+    <t>Result Expect</t>
+  </si>
+  <si>
+    <t>Result Real</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,15 +228,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -542,37 +532,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="81" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="81.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -585,138 +575,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M707"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="4">
+        <v>38</v>
+      </c>
+      <c r="K4" s="7">
         <v>1</v>
       </c>
-      <c r="L4" s="5">
-        <v>1</v>
+      <c r="L4" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M4" t="b">
         <f>IF(K4&lt;&gt;"",IF(K4=L4,TRUE,FALSE),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -724,40 +714,40 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="7">
         <v>1</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>38</v>
+      <c r="L5" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M5" t="b">
-        <f t="shared" ref="M5:M68" si="0">IF(K5&lt;&gt;"",IF(K5=L5,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M5:M21" si="0">IF(K5&lt;&gt;"",IF(K5=L5,TRUE,FALSE),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -766,37 +756,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="7">
         <v>1</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>38</v>
+      <c r="L6" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M6" t="b">
         <f t="shared" si="0"/>
@@ -808,37 +798,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>38</v>
+      <c r="L7" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M7" t="b">
         <f t="shared" si="0"/>
@@ -850,34 +840,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="7">
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>38</v>
+      <c r="L8" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M8" t="b">
         <f t="shared" si="0"/>
@@ -889,37 +879,37 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>38</v>
+      <c r="L9" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M9" t="b">
         <f t="shared" si="0"/>
@@ -931,37 +921,37 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>100000</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="7">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>38</v>
+      <c r="L10" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M10" t="b">
         <f t="shared" si="0"/>
@@ -973,37 +963,37 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>100000</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>39</v>
+      <c r="L11" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M11" t="b">
         <f t="shared" si="0"/>
@@ -1015,37 +1005,37 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>100000</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="7">
         <v>1</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>38</v>
+      <c r="L12" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M12" t="b">
         <f t="shared" si="0"/>
@@ -1057,37 +1047,37 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>100000</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="7">
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>39</v>
+      <c r="L13" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M13" t="b">
         <f t="shared" si="0"/>
@@ -1099,37 +1089,37 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>100000</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>38</v>
+      <c r="L14" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M14" t="b">
         <f t="shared" si="0"/>
@@ -1141,37 +1131,37 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>100000</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="7">
         <v>1</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>38</v>
+      <c r="L15" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M15" t="b">
         <f t="shared" si="0"/>
@@ -1183,37 +1173,37 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>100000</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="7">
         <v>1</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>38</v>
+      <c r="L16" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M16" t="b">
         <f t="shared" si="0"/>
@@ -1225,37 +1215,37 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>100000</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="7">
         <v>1</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>38</v>
+      <c r="L17" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M17" t="b">
         <f t="shared" si="0"/>
@@ -1267,37 +1257,37 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>100000</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="7">
         <v>1</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>38</v>
+      <c r="L18" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M18" t="b">
         <f t="shared" si="0"/>
@@ -1309,37 +1299,37 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>100000</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="7">
         <v>1</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>38</v>
+      <c r="L19" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M19" t="b">
         <f t="shared" si="0"/>
@@ -1351,37 +1341,37 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>100000</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="7">
         <v>1</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>38</v>
+      <c r="L20" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M20" t="b">
         <f t="shared" si="0"/>
@@ -1393,37 +1383,37 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>100000</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>38</v>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M21" t="b">
         <f t="shared" si="0"/>
@@ -1432,9 +1422,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="2"/>
       <c r="M22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M22:M68" si="1">IF(K22&lt;&gt;"",IF(K22=L22,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -1442,7 +1433,7 @@
       <c r="A23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1450,7 +1441,7 @@
       <c r="A24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1458,7 +1449,7 @@
       <c r="A25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1466,7 +1457,7 @@
       <c r="A26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1474,7 +1465,7 @@
       <c r="A27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1482,7 +1473,7 @@
       <c r="A28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1490,7 +1481,7 @@
       <c r="A29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1498,7 +1489,7 @@
       <c r="A30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1506,7 +1497,7 @@
       <c r="A31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1514,7 +1505,7 @@
       <c r="A32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1522,7 +1513,7 @@
       <c r="A33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1530,7 +1521,7 @@
       <c r="A34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1538,7 +1529,7 @@
       <c r="A35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1546,7 +1537,7 @@
       <c r="A36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1554,7 +1545,7 @@
       <c r="A37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1562,7 +1553,7 @@
       <c r="A38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1570,7 +1561,7 @@
       <c r="A39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1578,7 +1569,7 @@
       <c r="A40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1586,7 +1577,7 @@
       <c r="A41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1594,7 +1585,7 @@
       <c r="A42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1602,7 +1593,7 @@
       <c r="A43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1610,7 +1601,7 @@
       <c r="A44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1618,7 +1609,7 @@
       <c r="A45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1626,7 +1617,7 @@
       <c r="A46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1634,7 +1625,7 @@
       <c r="A47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1642,7 +1633,7 @@
       <c r="A48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1650,7 +1641,7 @@
       <c r="A49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1658,7 +1649,7 @@
       <c r="A50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1666,7 +1657,7 @@
       <c r="A51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1674,7 +1665,7 @@
       <c r="A52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1682,7 +1673,7 @@
       <c r="A53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1690,7 +1681,7 @@
       <c r="A54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1698,7 +1689,7 @@
       <c r="A55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1706,7 +1697,7 @@
       <c r="A56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1714,7 +1705,7 @@
       <c r="A57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1722,7 +1713,7 @@
       <c r="A58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1730,7 +1721,7 @@
       <c r="A59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1738,7 +1729,7 @@
       <c r="A60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1746,7 +1737,7 @@
       <c r="A61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1754,7 +1745,7 @@
       <c r="A62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1762,7 +1753,7 @@
       <c r="A63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1770,7 +1761,7 @@
       <c r="A64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1778,7 +1769,7 @@
       <c r="A65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1786,7 +1777,7 @@
       <c r="A66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1794,7 +1785,7 @@
       <c r="A67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1802,7 +1793,7 @@
       <c r="A68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1810,7 +1801,7 @@
       <c r="A69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" t="str">
-        <f t="shared" ref="M69:M132" si="1">IF(K69&lt;&gt;"",IF(K69=L69,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M69:M132" si="2">IF(K69&lt;&gt;"",IF(K69=L69,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -1818,7 +1809,7 @@
       <c r="A70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1826,7 +1817,7 @@
       <c r="A71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1834,7 +1825,7 @@
       <c r="A72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1842,7 +1833,7 @@
       <c r="A73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1850,7 +1841,7 @@
       <c r="A74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1858,7 +1849,7 @@
       <c r="A75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1866,7 +1857,7 @@
       <c r="A76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1874,7 +1865,7 @@
       <c r="A77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1882,7 +1873,7 @@
       <c r="A78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1890,7 +1881,7 @@
       <c r="A79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1898,7 +1889,7 @@
       <c r="A80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1906,7 +1897,7 @@
       <c r="A81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1914,7 +1905,7 @@
       <c r="A82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1922,7 +1913,7 @@
       <c r="A83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1930,7 +1921,7 @@
       <c r="A84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1938,7 +1929,7 @@
       <c r="A85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1946,7 +1937,7 @@
       <c r="A86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1954,7 +1945,7 @@
       <c r="A87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1962,7 +1953,7 @@
       <c r="A88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1970,7 +1961,7 @@
       <c r="A89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1978,7 +1969,7 @@
       <c r="A90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1986,7 +1977,7 @@
       <c r="A91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1994,7 +1985,7 @@
       <c r="A92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2002,7 +1993,7 @@
       <c r="A93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2010,7 +2001,7 @@
       <c r="A94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2018,7 +2009,7 @@
       <c r="A95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2026,7 +2017,7 @@
       <c r="A96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2034,7 +2025,7 @@
       <c r="A97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2042,7 +2033,7 @@
       <c r="A98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2050,7 +2041,7 @@
       <c r="A99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2058,7 +2049,7 @@
       <c r="A100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2066,7 +2057,7 @@
       <c r="A101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2074,7 +2065,7 @@
       <c r="A102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2082,7 +2073,7 @@
       <c r="A103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2090,7 +2081,7 @@
       <c r="A104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2098,7 +2089,7 @@
       <c r="A105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2106,7 +2097,7 @@
       <c r="A106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2114,7 +2105,7 @@
       <c r="A107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2122,7 +2113,7 @@
       <c r="A108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2130,7 +2121,7 @@
       <c r="A109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2138,7 +2129,7 @@
       <c r="A110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2146,7 +2137,7 @@
       <c r="A111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2154,7 +2145,7 @@
       <c r="A112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2162,7 +2153,7 @@
       <c r="A113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2170,7 +2161,7 @@
       <c r="A114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2178,7 +2169,7 @@
       <c r="A115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2186,7 +2177,7 @@
       <c r="A116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2194,7 +2185,7 @@
       <c r="A117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2202,7 +2193,7 @@
       <c r="A118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2210,7 +2201,7 @@
       <c r="A119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2218,7 +2209,7 @@
       <c r="A120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2226,7 +2217,7 @@
       <c r="A121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2234,7 +2225,7 @@
       <c r="A122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2242,7 +2233,7 @@
       <c r="A123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2250,7 +2241,7 @@
       <c r="A124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2258,7 +2249,7 @@
       <c r="A125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2266,7 +2257,7 @@
       <c r="A126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2274,7 +2265,7 @@
       <c r="A127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2282,7 +2273,7 @@
       <c r="A128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2290,7 +2281,7 @@
       <c r="A129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2298,7 +2289,7 @@
       <c r="A130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2306,7 +2297,7 @@
       <c r="A131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2314,7 +2305,7 @@
       <c r="A132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2322,7 +2313,7 @@
       <c r="A133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" t="str">
-        <f t="shared" ref="M133:M196" si="2">IF(K133&lt;&gt;"",IF(K133=L133,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M133:M196" si="3">IF(K133&lt;&gt;"",IF(K133=L133,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -2330,7 +2321,7 @@
       <c r="A134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2338,7 +2329,7 @@
       <c r="A135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2346,7 +2337,7 @@
       <c r="A136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2354,7 +2345,7 @@
       <c r="A137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2362,7 +2353,7 @@
       <c r="A138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2370,7 +2361,7 @@
       <c r="A139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2378,7 +2369,7 @@
       <c r="A140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2386,7 +2377,7 @@
       <c r="A141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2394,7 +2385,7 @@
       <c r="A142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2402,7 +2393,7 @@
       <c r="A143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2410,7 +2401,7 @@
       <c r="A144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2418,7 +2409,7 @@
       <c r="A145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2426,7 +2417,7 @@
       <c r="A146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2434,7 +2425,7 @@
       <c r="A147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2442,7 +2433,7 @@
       <c r="A148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2450,7 +2441,7 @@
       <c r="A149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2458,7 +2449,7 @@
       <c r="A150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2466,7 +2457,7 @@
       <c r="A151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2474,7 +2465,7 @@
       <c r="A152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2482,7 +2473,7 @@
       <c r="A153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2490,7 +2481,7 @@
       <c r="A154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2498,7 +2489,7 @@
       <c r="A155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2506,7 +2497,7 @@
       <c r="A156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2514,7 +2505,7 @@
       <c r="A157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2522,7 +2513,7 @@
       <c r="A158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2530,7 +2521,7 @@
       <c r="A159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2538,7 +2529,7 @@
       <c r="A160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2546,7 +2537,7 @@
       <c r="A161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2554,7 +2545,7 @@
       <c r="A162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2562,7 +2553,7 @@
       <c r="A163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2570,7 +2561,7 @@
       <c r="A164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2578,7 +2569,7 @@
       <c r="A165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2586,7 +2577,7 @@
       <c r="A166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2594,7 +2585,7 @@
       <c r="A167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2602,7 +2593,7 @@
       <c r="A168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2610,7 +2601,7 @@
       <c r="A169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2618,7 +2609,7 @@
       <c r="A170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2626,7 +2617,7 @@
       <c r="A171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2634,7 +2625,7 @@
       <c r="A172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2642,7 +2633,7 @@
       <c r="A173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2650,7 +2641,7 @@
       <c r="A174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2658,7 +2649,7 @@
       <c r="A175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2666,7 +2657,7 @@
       <c r="A176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2674,7 +2665,7 @@
       <c r="A177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2682,7 +2673,7 @@
       <c r="A178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2690,7 +2681,7 @@
       <c r="A179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2698,7 +2689,7 @@
       <c r="A180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2706,7 +2697,7 @@
       <c r="A181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2714,7 +2705,7 @@
       <c r="A182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2722,7 +2713,7 @@
       <c r="A183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2730,7 +2721,7 @@
       <c r="A184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2738,7 +2729,7 @@
       <c r="A185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2746,7 +2737,7 @@
       <c r="A186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2754,7 +2745,7 @@
       <c r="A187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2762,7 +2753,7 @@
       <c r="A188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2770,7 +2761,7 @@
       <c r="A189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2778,7 +2769,7 @@
       <c r="A190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2786,7 +2777,7 @@
       <c r="A191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2794,7 +2785,7 @@
       <c r="A192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2802,7 +2793,7 @@
       <c r="A193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2810,7 +2801,7 @@
       <c r="A194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2818,7 +2809,7 @@
       <c r="A195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2826,7 +2817,7 @@
       <c r="A196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2834,7 +2825,7 @@
       <c r="A197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" t="str">
-        <f t="shared" ref="M197:M260" si="3">IF(K197&lt;&gt;"",IF(K197=L197,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M197:M260" si="4">IF(K197&lt;&gt;"",IF(K197=L197,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -2842,7 +2833,7 @@
       <c r="A198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2850,7 +2841,7 @@
       <c r="A199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2858,3344 +2849,3344 @@
       <c r="A200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L201" s="2"/>
       <c r="M201" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L202" s="2"/>
       <c r="M202" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L203" s="2"/>
       <c r="M203" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L204" s="2"/>
       <c r="M204" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L205" s="2"/>
       <c r="M205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L206" s="2"/>
       <c r="M206" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L207" s="2"/>
       <c r="M207" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L208" s="2"/>
       <c r="M208" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L209" s="2"/>
       <c r="M209" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L210" s="2"/>
       <c r="M210" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L211" s="2"/>
       <c r="M211" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L212" s="2"/>
       <c r="M212" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L213" s="2"/>
       <c r="M213" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L214" s="2"/>
       <c r="M214" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L215" s="2"/>
       <c r="M215" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L216" s="2"/>
       <c r="M216" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L217" s="2"/>
       <c r="M217" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L218" s="2"/>
       <c r="M218" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L219" s="2"/>
       <c r="M219" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L220" s="2"/>
       <c r="M220" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L221" s="2"/>
       <c r="M221" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L222" s="2"/>
       <c r="M222" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L223" s="2"/>
       <c r="M223" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L224" s="2"/>
       <c r="M224" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L225" s="2"/>
       <c r="M225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L226" s="2"/>
       <c r="M226" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L227" s="2"/>
       <c r="M227" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L228" s="2"/>
       <c r="M228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L229" s="2"/>
       <c r="M229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L230" s="2"/>
       <c r="M230" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L231" s="2"/>
       <c r="M231" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L232" s="2"/>
       <c r="M232" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L233" s="2"/>
       <c r="M233" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L234" s="2"/>
       <c r="M234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L235" s="2"/>
       <c r="M235" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L236" s="2"/>
       <c r="M236" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L237" s="2"/>
       <c r="M237" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L238" s="2"/>
       <c r="M238" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L239" s="2"/>
       <c r="M239" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L240" s="2"/>
       <c r="M240" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L241" s="2"/>
       <c r="M241" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L242" s="2"/>
       <c r="M242" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L243" s="2"/>
       <c r="M243" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L244" s="2"/>
       <c r="M244" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L245" s="2"/>
       <c r="M245" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L246" s="2"/>
       <c r="M246" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L247" s="2"/>
       <c r="M247" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L248" s="2"/>
       <c r="M248" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L249" s="2"/>
       <c r="M249" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L250" s="2"/>
       <c r="M250" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L251" s="2"/>
       <c r="M251" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L252" s="2"/>
       <c r="M252" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L253" s="2"/>
       <c r="M253" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L254" s="2"/>
       <c r="M254" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L255" s="2"/>
       <c r="M255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L256" s="2"/>
       <c r="M256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L257" s="2"/>
       <c r="M257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L258" s="2"/>
       <c r="M258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L259" s="2"/>
       <c r="M259" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L260" s="2"/>
       <c r="M260" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L261" s="2"/>
       <c r="M261" t="str">
-        <f t="shared" ref="M261:M324" si="4">IF(K261&lt;&gt;"",IF(K261=L261,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M261:M324" si="5">IF(K261&lt;&gt;"",IF(K261=L261,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L262" s="2"/>
       <c r="M262" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L263" s="2"/>
       <c r="M263" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L264" s="2"/>
       <c r="M264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L265" s="2"/>
       <c r="M265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L266" s="2"/>
       <c r="M266" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L267" s="2"/>
       <c r="M267" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L268" s="2"/>
       <c r="M268" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L269" s="2"/>
       <c r="M269" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L270" s="2"/>
       <c r="M270" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L271" s="2"/>
       <c r="M271" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L272" s="2"/>
       <c r="M272" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L273" s="2"/>
       <c r="M273" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L274" s="2"/>
       <c r="M274" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L275" s="2"/>
       <c r="M275" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L276" s="2"/>
       <c r="M276" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L277" s="2"/>
       <c r="M277" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L278" s="2"/>
       <c r="M278" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L279" s="2"/>
       <c r="M279" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L280" s="2"/>
       <c r="M280" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L281" s="2"/>
       <c r="M281" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L282" s="2"/>
       <c r="M282" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L283" s="2"/>
       <c r="M283" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L284" s="2"/>
       <c r="M284" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L285" s="2"/>
       <c r="M285" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L286" s="2"/>
       <c r="M286" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L287" s="2"/>
       <c r="M287" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L288" s="2"/>
       <c r="M288" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L289" s="2"/>
       <c r="M289" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L290" s="2"/>
       <c r="M290" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L291" s="2"/>
       <c r="M291" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L292" s="2"/>
       <c r="M292" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L293" s="2"/>
       <c r="M293" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L294" s="2"/>
       <c r="M294" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L295" s="2"/>
       <c r="M295" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L296" s="2"/>
       <c r="M296" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L297" s="2"/>
       <c r="M297" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L298" s="2"/>
       <c r="M298" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L299" s="2"/>
       <c r="M299" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L300" s="2"/>
       <c r="M300" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L301" s="2"/>
       <c r="M301" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L302" s="2"/>
       <c r="M302" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L303" s="2"/>
       <c r="M303" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L304" s="2"/>
       <c r="M304" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L305" s="2"/>
       <c r="M305" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L306" s="2"/>
       <c r="M306" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L307" s="2"/>
       <c r="M307" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L308" s="2"/>
       <c r="M308" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L309" s="2"/>
       <c r="M309" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L310" s="2"/>
       <c r="M310" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L311" s="2"/>
       <c r="M311" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L312" s="2"/>
       <c r="M312" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L313" s="2"/>
       <c r="M313" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L314" s="2"/>
       <c r="M314" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L315" s="2"/>
       <c r="M315" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L316" s="2"/>
       <c r="M316" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L317" s="2"/>
       <c r="M317" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L318" s="2"/>
       <c r="M318" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L319" s="2"/>
       <c r="M319" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L320" s="2"/>
       <c r="M320" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L321" s="2"/>
       <c r="M321" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L322" s="2"/>
       <c r="M322" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L323" s="2"/>
       <c r="M323" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L324" s="2"/>
       <c r="M324" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L325" s="2"/>
       <c r="M325" t="str">
-        <f t="shared" ref="M325:M388" si="5">IF(K325&lt;&gt;"",IF(K325=L325,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M325:M388" si="6">IF(K325&lt;&gt;"",IF(K325=L325,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L326" s="2"/>
       <c r="M326" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L327" s="2"/>
       <c r="M327" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L328" s="2"/>
       <c r="M328" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L329" s="2"/>
       <c r="M329" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L330" s="2"/>
       <c r="M330" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L331" s="2"/>
       <c r="M331" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L332" s="2"/>
       <c r="M332" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L333" s="2"/>
       <c r="M333" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L334" s="2"/>
       <c r="M334" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L335" s="2"/>
       <c r="M335" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L336" s="2"/>
       <c r="M336" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L337" s="2"/>
       <c r="M337" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L338" s="2"/>
       <c r="M338" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L339" s="2"/>
       <c r="M339" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L340" s="2"/>
       <c r="M340" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L341" s="2"/>
       <c r="M341" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L342" s="2"/>
       <c r="M342" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L343" s="2"/>
       <c r="M343" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L344" s="2"/>
       <c r="M344" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L345" s="2"/>
       <c r="M345" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L346" s="2"/>
       <c r="M346" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L347" s="2"/>
       <c r="M347" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L348" s="2"/>
       <c r="M348" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L349" s="2"/>
       <c r="M349" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L350" s="2"/>
       <c r="M350" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L351" s="2"/>
       <c r="M351" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L352" s="2"/>
       <c r="M352" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L353" s="2"/>
       <c r="M353" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L354" s="2"/>
       <c r="M354" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L355" s="2"/>
       <c r="M355" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L356" s="2"/>
       <c r="M356" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L357" s="2"/>
       <c r="M357" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L358" s="2"/>
       <c r="M358" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L359" s="2"/>
       <c r="M359" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L360" s="2"/>
       <c r="M360" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L361" s="2"/>
       <c r="M361" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L362" s="2"/>
       <c r="M362" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L363" s="2"/>
       <c r="M363" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L364" s="2"/>
       <c r="M364" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L365" s="2"/>
       <c r="M365" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L366" s="2"/>
       <c r="M366" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L367" s="2"/>
       <c r="M367" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L368" s="2"/>
       <c r="M368" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L369" s="2"/>
       <c r="M369" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L370" s="2"/>
       <c r="M370" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L371" s="2"/>
       <c r="M371" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L372" s="2"/>
       <c r="M372" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L373" s="2"/>
       <c r="M373" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L374" s="2"/>
       <c r="M374" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L375" s="2"/>
       <c r="M375" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L376" s="2"/>
       <c r="M376" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L377" s="2"/>
       <c r="M377" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L378" s="2"/>
       <c r="M378" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L379" s="2"/>
       <c r="M379" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L380" s="2"/>
       <c r="M380" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L381" s="2"/>
       <c r="M381" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L382" s="2"/>
       <c r="M382" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L383" s="2"/>
       <c r="M383" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L384" s="2"/>
       <c r="M384" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L385" s="2"/>
       <c r="M385" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L386" s="2"/>
       <c r="M386" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L387" s="2"/>
       <c r="M387" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L388" s="2"/>
       <c r="M388" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L389" s="2"/>
       <c r="M389" t="str">
-        <f t="shared" ref="M389:M452" si="6">IF(K389&lt;&gt;"",IF(K389=L389,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M389:M452" si="7">IF(K389&lt;&gt;"",IF(K389=L389,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="390" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L390" s="2"/>
       <c r="M390" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L391" s="2"/>
       <c r="M391" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L392" s="2"/>
       <c r="M392" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L393" s="2"/>
       <c r="M393" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L394" s="2"/>
       <c r="M394" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L395" s="2"/>
       <c r="M395" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L396" s="2"/>
       <c r="M396" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L397" s="2"/>
       <c r="M397" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L398" s="2"/>
       <c r="M398" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L399" s="2"/>
       <c r="M399" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L400" s="2"/>
       <c r="M400" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L401" s="2"/>
       <c r="M401" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L402" s="2"/>
       <c r="M402" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L403" s="2"/>
       <c r="M403" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L404" s="2"/>
       <c r="M404" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L405" s="2"/>
       <c r="M405" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L406" s="2"/>
       <c r="M406" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L407" s="2"/>
       <c r="M407" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L408" s="2"/>
       <c r="M408" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L409" s="2"/>
       <c r="M409" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L410" s="2"/>
       <c r="M410" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L411" s="2"/>
       <c r="M411" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L412" s="2"/>
       <c r="M412" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L413" s="2"/>
       <c r="M413" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L414" s="2"/>
       <c r="M414" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L415" s="2"/>
       <c r="M415" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L416" s="2"/>
       <c r="M416" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L417" s="2"/>
       <c r="M417" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L418" s="2"/>
       <c r="M418" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L419" s="2"/>
       <c r="M419" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L420" s="2"/>
       <c r="M420" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L421" s="2"/>
       <c r="M421" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L422" s="2"/>
       <c r="M422" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L423" s="2"/>
       <c r="M423" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L424" s="2"/>
       <c r="M424" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L425" s="2"/>
       <c r="M425" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L426" s="2"/>
       <c r="M426" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L427" s="2"/>
       <c r="M427" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L428" s="2"/>
       <c r="M428" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L429" s="2"/>
       <c r="M429" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L430" s="2"/>
       <c r="M430" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L431" s="2"/>
       <c r="M431" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L432" s="2"/>
       <c r="M432" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L433" s="2"/>
       <c r="M433" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L434" s="2"/>
       <c r="M434" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L435" s="2"/>
       <c r="M435" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L436" s="2"/>
       <c r="M436" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L437" s="2"/>
       <c r="M437" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L438" s="2"/>
       <c r="M438" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L439" s="2"/>
       <c r="M439" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L440" s="2"/>
       <c r="M440" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L441" s="2"/>
       <c r="M441" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L442" s="2"/>
       <c r="M442" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L443" s="2"/>
       <c r="M443" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L444" s="2"/>
       <c r="M444" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L445" s="2"/>
       <c r="M445" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L446" s="2"/>
       <c r="M446" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L447" s="2"/>
       <c r="M447" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L448" s="2"/>
       <c r="M448" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L449" s="2"/>
       <c r="M449" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L450" s="2"/>
       <c r="M450" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L451" s="2"/>
       <c r="M451" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L452" s="2"/>
       <c r="M452" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L453" s="2"/>
       <c r="M453" t="str">
-        <f t="shared" ref="M453:M516" si="7">IF(K453&lt;&gt;"",IF(K453=L453,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M453:M516" si="8">IF(K453&lt;&gt;"",IF(K453=L453,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="454" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L454" s="2"/>
       <c r="M454" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L455" s="2"/>
       <c r="M455" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L456" s="2"/>
       <c r="M456" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L457" s="2"/>
       <c r="M457" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L458" s="2"/>
       <c r="M458" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L459" s="2"/>
       <c r="M459" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L460" s="2"/>
       <c r="M460" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L461" s="2"/>
       <c r="M461" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L462" s="2"/>
       <c r="M462" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L463" s="2"/>
       <c r="M463" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L464" s="2"/>
       <c r="M464" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L465" s="2"/>
       <c r="M465" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L466" s="2"/>
       <c r="M466" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L467" s="2"/>
       <c r="M467" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L468" s="2"/>
       <c r="M468" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L469" s="2"/>
       <c r="M469" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L470" s="2"/>
       <c r="M470" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L471" s="2"/>
       <c r="M471" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L472" s="2"/>
       <c r="M472" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L473" s="2"/>
       <c r="M473" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L474" s="2"/>
       <c r="M474" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L475" s="2"/>
       <c r="M475" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L476" s="2"/>
       <c r="M476" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L477" s="2"/>
       <c r="M477" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L478" s="2"/>
       <c r="M478" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L479" s="2"/>
       <c r="M479" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L480" s="2"/>
       <c r="M480" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L481" s="2"/>
       <c r="M481" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L482" s="2"/>
       <c r="M482" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L483" s="2"/>
       <c r="M483" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L484" s="2"/>
       <c r="M484" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L485" s="2"/>
       <c r="M485" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L486" s="2"/>
       <c r="M486" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L487" s="2"/>
       <c r="M487" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L488" s="2"/>
       <c r="M488" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L489" s="2"/>
       <c r="M489" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L490" s="2"/>
       <c r="M490" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L491" s="2"/>
       <c r="M491" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L492" s="2"/>
       <c r="M492" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L493" s="2"/>
       <c r="M493" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L494" s="2"/>
       <c r="M494" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L495" s="2"/>
       <c r="M495" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M496" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M497" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M498" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M499" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M500" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M501" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M502" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M503" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M504" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M505" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M506" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M507" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M508" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M509" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M510" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M511" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M512" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M513" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M514" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M515" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M516" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M517" t="str">
-        <f t="shared" ref="M517:M580" si="8">IF(K517&lt;&gt;"",IF(K517=L517,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M517:M580" si="9">IF(K517&lt;&gt;"",IF(K517=L517,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="518" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M518" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="519" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M519" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M520" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="521" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M521" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="522" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M522" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="523" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M523" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="524" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M524" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="525" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M525" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M526" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="527" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M527" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="528" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M528" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="529" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M529" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="530" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M530" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="531" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M531" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="532" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M532" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="533" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M533" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="534" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M534" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="535" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M535" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="536" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M536" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="537" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M537" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="538" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M538" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="539" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M539" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="540" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M540" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="541" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M541" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="542" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M542" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="543" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M543" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="544" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M544" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="545" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M545" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="546" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M546" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="547" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M547" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="548" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M548" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="549" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M549" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="550" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M550" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="551" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M551" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="552" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M552" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="553" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M553" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="554" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M554" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="555" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M555" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="556" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M556" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="557" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M557" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="558" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M558" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="559" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M559" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="560" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M560" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="561" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M561" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="562" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M562" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="563" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M563" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="564" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M564" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="565" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M565" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="566" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M566" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="567" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M567" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="568" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M568" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="569" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M569" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="570" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M570" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="571" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M571" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="572" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M572" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M573" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="574" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M574" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="575" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M575" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="576" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M576" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="577" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M577" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="578" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M578" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="579" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M579" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="580" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M580" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="581" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M581" t="str">
-        <f t="shared" ref="M581:M644" si="9">IF(K581&lt;&gt;"",IF(K581=L581,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M581:M644" si="10">IF(K581&lt;&gt;"",IF(K581=L581,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="582" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M582" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="583" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M583" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="584" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M584" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="585" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M585" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="586" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M586" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="587" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M587" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="588" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M588" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="589" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M589" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="590" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M590" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="591" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M591" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="592" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M592" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="593" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M593" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="594" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M594" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="595" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M595" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="596" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M596" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="597" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M597" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="598" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M598" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="599" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M599" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="600" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M600" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="601" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M601" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="602" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M602" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="603" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M603" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="604" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M604" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="605" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M605" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="606" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M606" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="607" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M607" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="608" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M608" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="609" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M609" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="610" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M610" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="611" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M611" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="612" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M612" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="613" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M613" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="614" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M614" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="615" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M615" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="616" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M616" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="617" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M617" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="618" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M618" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="619" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M619" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="620" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M620" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="621" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M621" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="622" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M622" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="623" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M623" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="624" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M624" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="625" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M625" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="626" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M626" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="627" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M627" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="628" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M628" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="629" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M629" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="630" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M630" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="631" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M631" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="632" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M632" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="633" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M633" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="634" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M634" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="635" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M635" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="636" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M636" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="637" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M637" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="638" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M638" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="639" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M639" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="640" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M640" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="641" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M641" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="642" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M642" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="643" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M643" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="644" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M644" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="645" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M645" t="str">
-        <f t="shared" ref="M645:M707" si="10">IF(K645&lt;&gt;"",IF(K645=L645,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M645:M707" si="11">IF(K645&lt;&gt;"",IF(K645=L645,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="646" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M646" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="647" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M647" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="648" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M648" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="649" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M649" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="650" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M650" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="651" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M651" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="652" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M652" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="653" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M653" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="654" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M654" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="655" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M655" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="656" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M656" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="657" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M657" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="658" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M658" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="659" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M659" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="660" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M660" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="661" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M661" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="662" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M662" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="663" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M663" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="664" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M664" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="665" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M665" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="666" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M666" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="667" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M667" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="668" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M668" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="669" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M669" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="670" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M670" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="671" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M671" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="672" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M672" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="673" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M673" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="674" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M674" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="675" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M675" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="676" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M676" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="677" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M677" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="678" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M678" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="679" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M679" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="680" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M680" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="681" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M681" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="682" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M682" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="683" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M683" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="684" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M684" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="685" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M685" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="686" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M686" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="687" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M687" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="688" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M688" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="689" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M689" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="690" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M690" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="691" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M691" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="692" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M692" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="693" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M693" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="694" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M694" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="695" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M695" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="696" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M696" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="697" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M697" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="698" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M698" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="699" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M699" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="700" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M700" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="701" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M701" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="702" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M702" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="703" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M703" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="704" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M704" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="705" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M705" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="706" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M706" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="707" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M707" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6221,111 +6212,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>11223344</v>
@@ -6339,8 +6330,534 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <v>1</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" t="b">
+        <f>IF(VALUE(J4)&lt;&gt;"",IF(VALUE(J4) = VALUE(K4),TRUE,FALSE),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L68" si="0">IF(J5&lt;&gt;"",IF(J5=K5,TRUE,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K30" s="8"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L69" t="str">
+        <f t="shared" ref="L69:L82" si="1">IF(J69&lt;&gt;"",IF(J69=K69,TRUE,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/App_TestWithdrawFund/test.xlsx
+++ b/App_TestWithdrawFund/test.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuti\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPU01661-local\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -40,13 +40,7 @@
     <t>TestCase</t>
   </si>
   <si>
-    <t>caller</t>
-  </si>
-  <si>
     <t>tid</t>
-  </si>
-  <si>
-    <t>tn</t>
   </si>
   <si>
     <t>amt</t>
@@ -61,88 +55,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>-100000</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>T160712KWQZ09Q8s</t>
-  </si>
-  <si>
     <t>KQ</t>
-  </si>
-  <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>112233445</t>
-  </si>
-  <si>
-    <t>112233446</t>
-  </si>
-  <si>
-    <t>112233447</t>
-  </si>
-  <si>
-    <t>112233448</t>
-  </si>
-  <si>
-    <t>112233449</t>
-  </si>
-  <si>
-    <t>112233450</t>
-  </si>
-  <si>
-    <t>112233451</t>
-  </si>
-  <si>
-    <t>112233452</t>
-  </si>
-  <si>
-    <t>112233453</t>
-  </si>
-  <si>
-    <t>112233454</t>
-  </si>
-  <si>
-    <t>112233455</t>
-  </si>
-  <si>
-    <t>112233456</t>
-  </si>
-  <si>
-    <t>112233457</t>
-  </si>
-  <si>
-    <t>112233458</t>
-  </si>
-  <si>
-    <t>112233459</t>
-  </si>
-  <si>
-    <t>112233460</t>
-  </si>
-  <si>
-    <t>112233461</t>
-  </si>
-  <si>
-    <t>112233462</t>
   </si>
   <si>
     <t>Data Request</t>
   </si>
   <si>
     <t>Threads</t>
-  </si>
-  <si>
-    <t>ChkSum/Signature</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>data</t>
@@ -171,13 +90,54 @@
   <si>
     <t>Result Real</t>
   </si>
+  <si>
+    <t>chksum</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>1122334456</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>caller-0</t>
+  </si>
+  <si>
+    <t>tid-1</t>
+  </si>
+  <si>
+    <t>tn-0</t>
+  </si>
+  <si>
+    <t>amt-0</t>
+  </si>
+  <si>
+    <t>1122334457</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,6 +198,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,45 +490,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="81.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="81" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -575,97 +565,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M707"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="54.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="8" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>15</v>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -675,37 +665,37 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>1.0</v>
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
       </c>
       <c r="M4" t="b">
-        <f>IF(K4&lt;&gt;"",IF(K4=L4,TRUE,FALSE),"")</f>
+        <f>IF(K4&lt;&gt;"",IF(K4  = L4,TRUE, FALSE),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -713,727 +703,332 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>1.0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="7"/>
       <c r="M5" t="b">
-        <f t="shared" ref="M5:M21" si="0">IF(K5&lt;&gt;"",IF(K5=L5,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M5:M23" si="0">IF(K5&lt;&gt;"",IF(K5  = L5,TRUE, FALSE),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="7"/>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="7"/>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="7"/>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="7"/>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>100000</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="7"/>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>100000</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="7"/>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>100000</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="7"/>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>100000</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="7"/>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>100000</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="7"/>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>100000</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="7"/>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>100000</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="7"/>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>100000</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="7"/>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>100000</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="7"/>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>100000</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="7"/>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <v>100000</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M20" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="7"/>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>100000</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M21" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="7"/>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
+      <c r="I22" s="4"/>
       <c r="K22" s="7"/>
       <c r="L22" s="2"/>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:M68" si="1">IF(K22&lt;&gt;"",IF(K22=L22,TRUE,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
+      <c r="I23" s="4"/>
       <c r="L23" s="2"/>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1441,7 +1036,7 @@
       <c r="A24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M24:M44" si="1">IF(K24&lt;&gt;"",IF(K24=L24,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -1609,7 +1204,7 @@
       <c r="A45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M45:M68" si="2">IF(K45&lt;&gt;"",IF(K45=L45,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -1617,7 +1212,7 @@
       <c r="A46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1625,7 +1220,7 @@
       <c r="A47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1633,7 +1228,7 @@
       <c r="A48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1641,7 +1236,7 @@
       <c r="A49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1649,7 +1244,7 @@
       <c r="A50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1657,7 +1252,7 @@
       <c r="A51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1665,7 +1260,7 @@
       <c r="A52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1673,7 +1268,7 @@
       <c r="A53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1681,7 +1276,7 @@
       <c r="A54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1689,7 +1284,7 @@
       <c r="A55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1697,7 +1292,7 @@
       <c r="A56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1705,7 +1300,7 @@
       <c r="A57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1713,7 +1308,7 @@
       <c r="A58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1721,7 +1316,7 @@
       <c r="A59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1729,7 +1324,7 @@
       <c r="A60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1737,7 +1332,7 @@
       <c r="A61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1745,7 +1340,7 @@
       <c r="A62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1753,7 +1348,7 @@
       <c r="A63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1761,7 +1356,7 @@
       <c r="A64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1769,7 +1364,7 @@
       <c r="A65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1777,7 +1372,7 @@
       <c r="A66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1785,7 +1380,7 @@
       <c r="A67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1793,7 +1388,7 @@
       <c r="A68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1801,7 +1396,7 @@
       <c r="A69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" t="str">
-        <f t="shared" ref="M69:M132" si="2">IF(K69&lt;&gt;"",IF(K69=L69,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M69:M132" si="3">IF(K69&lt;&gt;"",IF(K69=L69,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -1809,7 +1404,7 @@
       <c r="A70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1817,7 +1412,7 @@
       <c r="A71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1825,7 +1420,7 @@
       <c r="A72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1833,7 +1428,7 @@
       <c r="A73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1841,7 +1436,7 @@
       <c r="A74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1849,7 +1444,7 @@
       <c r="A75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1857,7 +1452,7 @@
       <c r="A76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1865,7 +1460,7 @@
       <c r="A77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1873,7 +1468,7 @@
       <c r="A78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1881,7 +1476,7 @@
       <c r="A79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1889,7 +1484,7 @@
       <c r="A80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1897,7 +1492,7 @@
       <c r="A81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1905,7 +1500,7 @@
       <c r="A82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1913,7 +1508,7 @@
       <c r="A83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1921,7 +1516,7 @@
       <c r="A84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1929,7 +1524,7 @@
       <c r="A85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1937,7 +1532,7 @@
       <c r="A86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1945,7 +1540,7 @@
       <c r="A87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1953,7 +1548,7 @@
       <c r="A88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1961,7 +1556,7 @@
       <c r="A89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1969,7 +1564,7 @@
       <c r="A90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1977,7 +1572,7 @@
       <c r="A91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1985,7 +1580,7 @@
       <c r="A92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1993,7 +1588,7 @@
       <c r="A93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2001,7 +1596,7 @@
       <c r="A94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2009,7 +1604,7 @@
       <c r="A95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2017,7 +1612,7 @@
       <c r="A96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2025,7 +1620,7 @@
       <c r="A97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2033,7 +1628,7 @@
       <c r="A98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2041,7 +1636,7 @@
       <c r="A99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2049,7 +1644,7 @@
       <c r="A100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2057,7 +1652,7 @@
       <c r="A101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2065,7 +1660,7 @@
       <c r="A102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2073,7 +1668,7 @@
       <c r="A103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2081,7 +1676,7 @@
       <c r="A104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2089,7 +1684,7 @@
       <c r="A105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2097,7 +1692,7 @@
       <c r="A106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2105,7 +1700,7 @@
       <c r="A107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2113,7 +1708,7 @@
       <c r="A108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2121,7 +1716,7 @@
       <c r="A109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2129,7 +1724,7 @@
       <c r="A110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2137,7 +1732,7 @@
       <c r="A111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2145,7 +1740,7 @@
       <c r="A112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2153,7 +1748,7 @@
       <c r="A113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2161,7 +1756,7 @@
       <c r="A114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2169,7 +1764,7 @@
       <c r="A115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2177,7 +1772,7 @@
       <c r="A116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2185,7 +1780,7 @@
       <c r="A117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2193,7 +1788,7 @@
       <c r="A118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2201,7 +1796,7 @@
       <c r="A119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2209,7 +1804,7 @@
       <c r="A120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2217,7 +1812,7 @@
       <c r="A121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2225,7 +1820,7 @@
       <c r="A122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2233,7 +1828,7 @@
       <c r="A123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2241,7 +1836,7 @@
       <c r="A124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2249,7 +1844,7 @@
       <c r="A125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2257,7 +1852,7 @@
       <c r="A126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2265,7 +1860,7 @@
       <c r="A127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2273,7 +1868,7 @@
       <c r="A128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2281,7 +1876,7 @@
       <c r="A129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2289,7 +1884,7 @@
       <c r="A130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2297,7 +1892,7 @@
       <c r="A131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2305,7 +1900,7 @@
       <c r="A132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2313,7 +1908,7 @@
       <c r="A133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" t="str">
-        <f t="shared" ref="M133:M196" si="3">IF(K133&lt;&gt;"",IF(K133=L133,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M133:M196" si="4">IF(K133&lt;&gt;"",IF(K133=L133,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -2321,7 +1916,7 @@
       <c r="A134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2329,7 +1924,7 @@
       <c r="A135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2337,7 +1932,7 @@
       <c r="A136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2345,7 +1940,7 @@
       <c r="A137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2353,7 +1948,7 @@
       <c r="A138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2361,7 +1956,7 @@
       <c r="A139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2369,7 +1964,7 @@
       <c r="A140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2377,7 +1972,7 @@
       <c r="A141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2385,7 +1980,7 @@
       <c r="A142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2393,7 +1988,7 @@
       <c r="A143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2401,7 +1996,7 @@
       <c r="A144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2409,7 +2004,7 @@
       <c r="A145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2417,7 +2012,7 @@
       <c r="A146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2425,7 +2020,7 @@
       <c r="A147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2433,7 +2028,7 @@
       <c r="A148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2441,7 +2036,7 @@
       <c r="A149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2449,7 +2044,7 @@
       <c r="A150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2457,7 +2052,7 @@
       <c r="A151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2465,7 +2060,7 @@
       <c r="A152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2473,7 +2068,7 @@
       <c r="A153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2481,7 +2076,7 @@
       <c r="A154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2489,7 +2084,7 @@
       <c r="A155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2497,7 +2092,7 @@
       <c r="A156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2505,7 +2100,7 @@
       <c r="A157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2513,7 +2108,7 @@
       <c r="A158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2521,7 +2116,7 @@
       <c r="A159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2529,7 +2124,7 @@
       <c r="A160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2537,7 +2132,7 @@
       <c r="A161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2545,7 +2140,7 @@
       <c r="A162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2553,7 +2148,7 @@
       <c r="A163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2561,7 +2156,7 @@
       <c r="A164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2569,7 +2164,7 @@
       <c r="A165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2577,7 +2172,7 @@
       <c r="A166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2585,7 +2180,7 @@
       <c r="A167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2593,7 +2188,7 @@
       <c r="A168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2601,7 +2196,7 @@
       <c r="A169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2609,7 +2204,7 @@
       <c r="A170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2617,7 +2212,7 @@
       <c r="A171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2625,7 +2220,7 @@
       <c r="A172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2633,7 +2228,7 @@
       <c r="A173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2641,7 +2236,7 @@
       <c r="A174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2649,7 +2244,7 @@
       <c r="A175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2657,7 +2252,7 @@
       <c r="A176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2665,7 +2260,7 @@
       <c r="A177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2673,7 +2268,7 @@
       <c r="A178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2681,7 +2276,7 @@
       <c r="A179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2689,7 +2284,7 @@
       <c r="A180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2697,7 +2292,7 @@
       <c r="A181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2705,7 +2300,7 @@
       <c r="A182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2713,7 +2308,7 @@
       <c r="A183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2721,7 +2316,7 @@
       <c r="A184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2729,7 +2324,7 @@
       <c r="A185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2737,7 +2332,7 @@
       <c r="A186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2745,7 +2340,7 @@
       <c r="A187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2753,7 +2348,7 @@
       <c r="A188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2761,7 +2356,7 @@
       <c r="A189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2769,7 +2364,7 @@
       <c r="A190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2777,7 +2372,7 @@
       <c r="A191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2785,7 +2380,7 @@
       <c r="A192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2793,7 +2388,7 @@
       <c r="A193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2801,7 +2396,7 @@
       <c r="A194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2809,7 +2404,7 @@
       <c r="A195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2817,7 +2412,7 @@
       <c r="A196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2825,7 +2420,7 @@
       <c r="A197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" t="str">
-        <f t="shared" ref="M197:M260" si="4">IF(K197&lt;&gt;"",IF(K197=L197,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M197:M260" si="5">IF(K197&lt;&gt;"",IF(K197=L197,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -2833,7 +2428,7 @@
       <c r="A198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2841,7 +2436,7 @@
       <c r="A199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2849,3344 +2444,3344 @@
       <c r="A200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L201" s="2"/>
       <c r="M201" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L202" s="2"/>
       <c r="M202" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L203" s="2"/>
       <c r="M203" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L204" s="2"/>
       <c r="M204" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L205" s="2"/>
       <c r="M205" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L206" s="2"/>
       <c r="M206" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L207" s="2"/>
       <c r="M207" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L208" s="2"/>
       <c r="M208" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L209" s="2"/>
       <c r="M209" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L210" s="2"/>
       <c r="M210" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L211" s="2"/>
       <c r="M211" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L212" s="2"/>
       <c r="M212" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L213" s="2"/>
       <c r="M213" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L214" s="2"/>
       <c r="M214" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L215" s="2"/>
       <c r="M215" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L216" s="2"/>
       <c r="M216" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L217" s="2"/>
       <c r="M217" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L218" s="2"/>
       <c r="M218" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L219" s="2"/>
       <c r="M219" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L220" s="2"/>
       <c r="M220" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L221" s="2"/>
       <c r="M221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L222" s="2"/>
       <c r="M222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L223" s="2"/>
       <c r="M223" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L224" s="2"/>
       <c r="M224" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L225" s="2"/>
       <c r="M225" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L226" s="2"/>
       <c r="M226" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L227" s="2"/>
       <c r="M227" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L228" s="2"/>
       <c r="M228" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L229" s="2"/>
       <c r="M229" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L230" s="2"/>
       <c r="M230" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L231" s="2"/>
       <c r="M231" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L232" s="2"/>
       <c r="M232" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L233" s="2"/>
       <c r="M233" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L234" s="2"/>
       <c r="M234" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L235" s="2"/>
       <c r="M235" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L236" s="2"/>
       <c r="M236" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L237" s="2"/>
       <c r="M237" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L238" s="2"/>
       <c r="M238" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L239" s="2"/>
       <c r="M239" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L240" s="2"/>
       <c r="M240" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L241" s="2"/>
       <c r="M241" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L242" s="2"/>
       <c r="M242" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L243" s="2"/>
       <c r="M243" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L244" s="2"/>
       <c r="M244" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L245" s="2"/>
       <c r="M245" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L246" s="2"/>
       <c r="M246" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L247" s="2"/>
       <c r="M247" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L248" s="2"/>
       <c r="M248" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L249" s="2"/>
       <c r="M249" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L250" s="2"/>
       <c r="M250" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L251" s="2"/>
       <c r="M251" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L252" s="2"/>
       <c r="M252" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L253" s="2"/>
       <c r="M253" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L254" s="2"/>
       <c r="M254" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L255" s="2"/>
       <c r="M255" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L256" s="2"/>
       <c r="M256" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L257" s="2"/>
       <c r="M257" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L258" s="2"/>
       <c r="M258" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L259" s="2"/>
       <c r="M259" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L260" s="2"/>
       <c r="M260" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L261" s="2"/>
       <c r="M261" t="str">
-        <f t="shared" ref="M261:M324" si="5">IF(K261&lt;&gt;"",IF(K261=L261,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M261:M324" si="6">IF(K261&lt;&gt;"",IF(K261=L261,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L262" s="2"/>
       <c r="M262" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L263" s="2"/>
       <c r="M263" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L264" s="2"/>
       <c r="M264" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L265" s="2"/>
       <c r="M265" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L266" s="2"/>
       <c r="M266" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L267" s="2"/>
       <c r="M267" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L268" s="2"/>
       <c r="M268" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L269" s="2"/>
       <c r="M269" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L270" s="2"/>
       <c r="M270" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L271" s="2"/>
       <c r="M271" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L272" s="2"/>
       <c r="M272" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L273" s="2"/>
       <c r="M273" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L274" s="2"/>
       <c r="M274" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L275" s="2"/>
       <c r="M275" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L276" s="2"/>
       <c r="M276" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L277" s="2"/>
       <c r="M277" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L278" s="2"/>
       <c r="M278" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L279" s="2"/>
       <c r="M279" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L280" s="2"/>
       <c r="M280" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L281" s="2"/>
       <c r="M281" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L282" s="2"/>
       <c r="M282" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L283" s="2"/>
       <c r="M283" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L284" s="2"/>
       <c r="M284" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L285" s="2"/>
       <c r="M285" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L286" s="2"/>
       <c r="M286" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L287" s="2"/>
       <c r="M287" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L288" s="2"/>
       <c r="M288" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L289" s="2"/>
       <c r="M289" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L290" s="2"/>
       <c r="M290" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L291" s="2"/>
       <c r="M291" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L292" s="2"/>
       <c r="M292" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L293" s="2"/>
       <c r="M293" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L294" s="2"/>
       <c r="M294" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L295" s="2"/>
       <c r="M295" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L296" s="2"/>
       <c r="M296" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L297" s="2"/>
       <c r="M297" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L298" s="2"/>
       <c r="M298" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L299" s="2"/>
       <c r="M299" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L300" s="2"/>
       <c r="M300" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L301" s="2"/>
       <c r="M301" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L302" s="2"/>
       <c r="M302" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L303" s="2"/>
       <c r="M303" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L304" s="2"/>
       <c r="M304" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L305" s="2"/>
       <c r="M305" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L306" s="2"/>
       <c r="M306" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L307" s="2"/>
       <c r="M307" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L308" s="2"/>
       <c r="M308" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L309" s="2"/>
       <c r="M309" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L310" s="2"/>
       <c r="M310" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L311" s="2"/>
       <c r="M311" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L312" s="2"/>
       <c r="M312" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L313" s="2"/>
       <c r="M313" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L314" s="2"/>
       <c r="M314" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L315" s="2"/>
       <c r="M315" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L316" s="2"/>
       <c r="M316" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L317" s="2"/>
       <c r="M317" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L318" s="2"/>
       <c r="M318" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L319" s="2"/>
       <c r="M319" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L320" s="2"/>
       <c r="M320" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L321" s="2"/>
       <c r="M321" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L322" s="2"/>
       <c r="M322" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L323" s="2"/>
       <c r="M323" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L324" s="2"/>
       <c r="M324" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L325" s="2"/>
       <c r="M325" t="str">
-        <f t="shared" ref="M325:M388" si="6">IF(K325&lt;&gt;"",IF(K325=L325,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M325:M388" si="7">IF(K325&lt;&gt;"",IF(K325=L325,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L326" s="2"/>
       <c r="M326" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L327" s="2"/>
       <c r="M327" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L328" s="2"/>
       <c r="M328" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L329" s="2"/>
       <c r="M329" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L330" s="2"/>
       <c r="M330" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L331" s="2"/>
       <c r="M331" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L332" s="2"/>
       <c r="M332" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L333" s="2"/>
       <c r="M333" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L334" s="2"/>
       <c r="M334" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L335" s="2"/>
       <c r="M335" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L336" s="2"/>
       <c r="M336" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L337" s="2"/>
       <c r="M337" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L338" s="2"/>
       <c r="M338" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L339" s="2"/>
       <c r="M339" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L340" s="2"/>
       <c r="M340" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L341" s="2"/>
       <c r="M341" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L342" s="2"/>
       <c r="M342" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L343" s="2"/>
       <c r="M343" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L344" s="2"/>
       <c r="M344" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L345" s="2"/>
       <c r="M345" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L346" s="2"/>
       <c r="M346" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L347" s="2"/>
       <c r="M347" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L348" s="2"/>
       <c r="M348" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L349" s="2"/>
       <c r="M349" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L350" s="2"/>
       <c r="M350" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L351" s="2"/>
       <c r="M351" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L352" s="2"/>
       <c r="M352" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L353" s="2"/>
       <c r="M353" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L354" s="2"/>
       <c r="M354" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L355" s="2"/>
       <c r="M355" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L356" s="2"/>
       <c r="M356" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L357" s="2"/>
       <c r="M357" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L358" s="2"/>
       <c r="M358" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L359" s="2"/>
       <c r="M359" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L360" s="2"/>
       <c r="M360" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L361" s="2"/>
       <c r="M361" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L362" s="2"/>
       <c r="M362" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L363" s="2"/>
       <c r="M363" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L364" s="2"/>
       <c r="M364" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L365" s="2"/>
       <c r="M365" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L366" s="2"/>
       <c r="M366" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L367" s="2"/>
       <c r="M367" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L368" s="2"/>
       <c r="M368" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L369" s="2"/>
       <c r="M369" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L370" s="2"/>
       <c r="M370" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L371" s="2"/>
       <c r="M371" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L372" s="2"/>
       <c r="M372" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L373" s="2"/>
       <c r="M373" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L374" s="2"/>
       <c r="M374" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L375" s="2"/>
       <c r="M375" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L376" s="2"/>
       <c r="M376" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L377" s="2"/>
       <c r="M377" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L378" s="2"/>
       <c r="M378" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L379" s="2"/>
       <c r="M379" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L380" s="2"/>
       <c r="M380" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L381" s="2"/>
       <c r="M381" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L382" s="2"/>
       <c r="M382" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L383" s="2"/>
       <c r="M383" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L384" s="2"/>
       <c r="M384" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L385" s="2"/>
       <c r="M385" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L386" s="2"/>
       <c r="M386" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L387" s="2"/>
       <c r="M387" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L388" s="2"/>
       <c r="M388" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L389" s="2"/>
       <c r="M389" t="str">
-        <f t="shared" ref="M389:M452" si="7">IF(K389&lt;&gt;"",IF(K389=L389,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M389:M452" si="8">IF(K389&lt;&gt;"",IF(K389=L389,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="390" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L390" s="2"/>
       <c r="M390" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L391" s="2"/>
       <c r="M391" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L392" s="2"/>
       <c r="M392" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L393" s="2"/>
       <c r="M393" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L394" s="2"/>
       <c r="M394" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L395" s="2"/>
       <c r="M395" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L396" s="2"/>
       <c r="M396" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L397" s="2"/>
       <c r="M397" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L398" s="2"/>
       <c r="M398" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L399" s="2"/>
       <c r="M399" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L400" s="2"/>
       <c r="M400" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L401" s="2"/>
       <c r="M401" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L402" s="2"/>
       <c r="M402" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L403" s="2"/>
       <c r="M403" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L404" s="2"/>
       <c r="M404" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L405" s="2"/>
       <c r="M405" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L406" s="2"/>
       <c r="M406" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L407" s="2"/>
       <c r="M407" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L408" s="2"/>
       <c r="M408" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L409" s="2"/>
       <c r="M409" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L410" s="2"/>
       <c r="M410" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L411" s="2"/>
       <c r="M411" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L412" s="2"/>
       <c r="M412" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L413" s="2"/>
       <c r="M413" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L414" s="2"/>
       <c r="M414" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L415" s="2"/>
       <c r="M415" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L416" s="2"/>
       <c r="M416" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L417" s="2"/>
       <c r="M417" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L418" s="2"/>
       <c r="M418" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L419" s="2"/>
       <c r="M419" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L420" s="2"/>
       <c r="M420" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L421" s="2"/>
       <c r="M421" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L422" s="2"/>
       <c r="M422" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L423" s="2"/>
       <c r="M423" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L424" s="2"/>
       <c r="M424" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L425" s="2"/>
       <c r="M425" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L426" s="2"/>
       <c r="M426" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L427" s="2"/>
       <c r="M427" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L428" s="2"/>
       <c r="M428" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L429" s="2"/>
       <c r="M429" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L430" s="2"/>
       <c r="M430" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L431" s="2"/>
       <c r="M431" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L432" s="2"/>
       <c r="M432" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L433" s="2"/>
       <c r="M433" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L434" s="2"/>
       <c r="M434" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L435" s="2"/>
       <c r="M435" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L436" s="2"/>
       <c r="M436" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L437" s="2"/>
       <c r="M437" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L438" s="2"/>
       <c r="M438" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L439" s="2"/>
       <c r="M439" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L440" s="2"/>
       <c r="M440" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L441" s="2"/>
       <c r="M441" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L442" s="2"/>
       <c r="M442" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L443" s="2"/>
       <c r="M443" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L444" s="2"/>
       <c r="M444" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L445" s="2"/>
       <c r="M445" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L446" s="2"/>
       <c r="M446" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L447" s="2"/>
       <c r="M447" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L448" s="2"/>
       <c r="M448" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L449" s="2"/>
       <c r="M449" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L450" s="2"/>
       <c r="M450" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L451" s="2"/>
       <c r="M451" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L452" s="2"/>
       <c r="M452" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L453" s="2"/>
       <c r="M453" t="str">
-        <f t="shared" ref="M453:M516" si="8">IF(K453&lt;&gt;"",IF(K453=L453,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M453:M516" si="9">IF(K453&lt;&gt;"",IF(K453=L453,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="454" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L454" s="2"/>
       <c r="M454" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L455" s="2"/>
       <c r="M455" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L456" s="2"/>
       <c r="M456" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L457" s="2"/>
       <c r="M457" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L458" s="2"/>
       <c r="M458" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L459" s="2"/>
       <c r="M459" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L460" s="2"/>
       <c r="M460" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L461" s="2"/>
       <c r="M461" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L462" s="2"/>
       <c r="M462" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L463" s="2"/>
       <c r="M463" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L464" s="2"/>
       <c r="M464" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L465" s="2"/>
       <c r="M465" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L466" s="2"/>
       <c r="M466" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L467" s="2"/>
       <c r="M467" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L468" s="2"/>
       <c r="M468" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L469" s="2"/>
       <c r="M469" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L470" s="2"/>
       <c r="M470" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L471" s="2"/>
       <c r="M471" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L472" s="2"/>
       <c r="M472" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L473" s="2"/>
       <c r="M473" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L474" s="2"/>
       <c r="M474" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L475" s="2"/>
       <c r="M475" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L476" s="2"/>
       <c r="M476" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L477" s="2"/>
       <c r="M477" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L478" s="2"/>
       <c r="M478" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L479" s="2"/>
       <c r="M479" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L480" s="2"/>
       <c r="M480" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L481" s="2"/>
       <c r="M481" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L482" s="2"/>
       <c r="M482" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L483" s="2"/>
       <c r="M483" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L484" s="2"/>
       <c r="M484" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L485" s="2"/>
       <c r="M485" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L486" s="2"/>
       <c r="M486" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L487" s="2"/>
       <c r="M487" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L488" s="2"/>
       <c r="M488" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L489" s="2"/>
       <c r="M489" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L490" s="2"/>
       <c r="M490" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L491" s="2"/>
       <c r="M491" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L492" s="2"/>
       <c r="M492" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L493" s="2"/>
       <c r="M493" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L494" s="2"/>
       <c r="M494" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L495" s="2"/>
       <c r="M495" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M496" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M497" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M498" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M499" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M500" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M501" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M502" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M503" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M504" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M505" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M506" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M507" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M508" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M509" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M510" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M511" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M512" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M513" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M514" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M515" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M516" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M517" t="str">
-        <f t="shared" ref="M517:M580" si="9">IF(K517&lt;&gt;"",IF(K517=L517,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M517:M580" si="10">IF(K517&lt;&gt;"",IF(K517=L517,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="518" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M518" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="519" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M519" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M520" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="521" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M521" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="522" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M522" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="523" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M523" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="524" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M524" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="525" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M525" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M526" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="527" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M527" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="528" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M528" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="529" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M529" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="530" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M530" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="531" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M531" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="532" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M532" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="533" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M533" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="534" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M534" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="535" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M535" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="536" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M536" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="537" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M537" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="538" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M538" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="539" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M539" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="540" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M540" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="541" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M541" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="542" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M542" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="543" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M543" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="544" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M544" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="545" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M545" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="546" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M546" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="547" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M547" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="548" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M548" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="549" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M549" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="550" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M550" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="551" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M551" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="552" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M552" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="553" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M553" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="554" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M554" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="555" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M555" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="556" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M556" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="557" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M557" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="558" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M558" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="559" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M559" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="560" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M560" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="561" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M561" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="562" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M562" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="563" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M563" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="564" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M564" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="565" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M565" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="566" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M566" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="567" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M567" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="568" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M568" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="569" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M569" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="570" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M570" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="571" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M571" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="572" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M572" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M573" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="574" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M574" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="575" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M575" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="576" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M576" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="577" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M577" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="578" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M578" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="579" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M579" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="580" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M580" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="581" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M581" t="str">
-        <f t="shared" ref="M581:M644" si="10">IF(K581&lt;&gt;"",IF(K581=L581,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M581:M644" si="11">IF(K581&lt;&gt;"",IF(K581=L581,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="582" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M582" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="583" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M583" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="584" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M584" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="585" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M585" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="586" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M586" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="587" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M587" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="588" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M588" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="589" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M589" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="590" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M590" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="591" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M591" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="592" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M592" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="593" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M593" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="594" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M594" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="595" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M595" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="596" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M596" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="597" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M597" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="598" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M598" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="599" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M599" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="600" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M600" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="601" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M601" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="602" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M602" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="603" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M603" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="604" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M604" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="605" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M605" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="606" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M606" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="607" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M607" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="608" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M608" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="609" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M609" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="610" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M610" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="611" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M611" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="612" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M612" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="613" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M613" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="614" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M614" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="615" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M615" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="616" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M616" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="617" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M617" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="618" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M618" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="619" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M619" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="620" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M620" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="621" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M621" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="622" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M622" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="623" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M623" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="624" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M624" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="625" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M625" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="626" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M626" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="627" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M627" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="628" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M628" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="629" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M629" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="630" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M630" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="631" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M631" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="632" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M632" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="633" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M633" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="634" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M634" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="635" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M635" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="636" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M636" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="637" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M637" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="638" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M638" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="639" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M639" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="640" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M640" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="641" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M641" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="642" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M642" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="643" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M643" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="644" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M644" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="645" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M645" t="str">
-        <f t="shared" ref="M645:M707" si="11">IF(K645&lt;&gt;"",IF(K645=L645,TRUE,FALSE),"")</f>
+        <f t="shared" ref="M645:M707" si="12">IF(K645&lt;&gt;"",IF(K645=L645,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="646" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M646" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="647" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M647" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="648" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M648" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="649" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M649" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="650" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M650" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="651" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M651" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="652" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M652" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="653" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M653" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="654" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M654" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="655" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M655" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="656" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M656" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="657" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M657" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="658" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M658" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="659" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M659" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="660" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M660" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="661" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M661" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="662" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M662" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="663" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M663" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="664" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M664" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="665" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M665" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="666" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M666" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="667" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M667" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="668" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M668" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="669" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M669" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="670" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M670" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="671" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M671" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="672" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M672" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="673" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M673" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="674" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M674" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="675" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M675" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="676" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M676" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="677" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M677" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="678" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M678" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="679" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M679" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="680" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M680" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="681" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M681" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="682" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M682" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="683" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M683" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="684" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M684" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="685" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M685" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="686" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M686" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="687" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M687" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="688" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M688" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="689" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M689" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="690" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M690" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="691" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M691" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="692" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M692" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="693" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M693" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="694" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M694" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="695" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M695" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="696" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M696" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="697" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M697" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="698" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M698" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="699" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M699" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="700" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M700" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="701" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M701" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="702" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M702" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="703" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M703" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="704" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M704" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="705" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M705" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="706" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M706" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="707" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M707" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6205,6 +5800,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I21">
+      <formula1>"chksum, signature, no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6212,120 +5812,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>15</v>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="6" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>11223344</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G4">
         <v>10000</v>
       </c>
-      <c r="H4">
-        <v>2</v>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6333,15 +5930,16 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="n">
-        <v>1.0</v>
+      <c r="K4" s="8">
+        <v>6100</v>
       </c>
       <c r="L4" t="b">
-        <f>IF(VALUE(J4)&lt;&gt;"",IF(VALUE(J4) = VALUE(K4),TRUE,FALSE),"")</f>
+        <f xml:space="preserve"> IF(J4 &lt;&gt; "",  IF(J4 = K4, TRUE, FALSE), "")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="4"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" t="str">
@@ -6350,6 +5948,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="4"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" t="str">
@@ -6358,6 +5957,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="4"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" t="str">
@@ -6366,6 +5966,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="4"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" t="str">
@@ -6374,6 +5975,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" t="str">
@@ -6382,6 +5984,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="4"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" t="str">
@@ -6390,6 +5993,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" t="str">
@@ -6398,6 +6002,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="4"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" t="str">
@@ -6406,6 +6011,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="4"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" t="str">
@@ -6414,6 +6020,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="4"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" t="str">
@@ -6422,6 +6029,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="4"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" t="str">
@@ -6430,6 +6038,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="4"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" t="str">
@@ -6437,7 +6046,8 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="4"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" t="str">
@@ -6445,7 +6055,8 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="4"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" t="str">
@@ -6453,7 +6064,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" t="str">
@@ -6461,7 +6073,8 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" t="str">
@@ -6469,7 +6082,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" t="str">
@@ -6477,7 +6091,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="4"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" t="str">
@@ -6485,7 +6100,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="4"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" t="str">
@@ -6493,7 +6109,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" t="str">
@@ -6501,7 +6118,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="4"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" t="str">
@@ -6509,7 +6127,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="4"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" t="str">
@@ -6517,7 +6136,8 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="4"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" t="str">
@@ -6525,7 +6145,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="4"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" t="str">
@@ -6533,7 +6154,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="4"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" t="str">
@@ -6541,324 +6163,389 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="4"/>
       <c r="K30" s="8"/>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="4"/>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="4"/>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33" s="4"/>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="4"/>
       <c r="L35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="4"/>
       <c r="L36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="4"/>
       <c r="L37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="4"/>
       <c r="L38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="4"/>
       <c r="L39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H40" s="4"/>
       <c r="L40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H41" s="4"/>
       <c r="L41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="4"/>
       <c r="L42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="4"/>
       <c r="L43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H44" s="4"/>
       <c r="L44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H45" s="4"/>
       <c r="L45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H46" s="4"/>
       <c r="L46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H47" s="4"/>
       <c r="L47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H48" s="4"/>
       <c r="L48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H49" s="4"/>
       <c r="L49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H50" s="4"/>
       <c r="L50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H51" s="4"/>
       <c r="L51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="4"/>
       <c r="L52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="4"/>
       <c r="L53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H54" s="4"/>
       <c r="L54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H55" s="4"/>
       <c r="L55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="4"/>
       <c r="L56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H57" s="4"/>
       <c r="L57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H58" s="4"/>
       <c r="L58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H59" s="4"/>
       <c r="L59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H60" s="4"/>
       <c r="L60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H61" s="4"/>
       <c r="L61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H62" s="4"/>
       <c r="L62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H63" s="4"/>
       <c r="L63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H64" s="4"/>
       <c r="L64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H65" s="4"/>
       <c r="L65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H66" s="4"/>
       <c r="L66" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H67" s="4"/>
       <c r="L67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H68" s="4"/>
       <c r="L68" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H69" s="4"/>
       <c r="L69" t="str">
         <f t="shared" ref="L69:L82" si="1">IF(J69&lt;&gt;"",IF(J69=K69,TRUE,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H70" s="4"/>
       <c r="L70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H71" s="4"/>
       <c r="L71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H72" s="4"/>
       <c r="L72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H73" s="4"/>
       <c r="L73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H74" s="4"/>
       <c r="L74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H75" s="4"/>
       <c r="L75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H76" s="4"/>
       <c r="L76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H77" s="4"/>
       <c r="L77" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H78" s="4"/>
       <c r="L78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H79" s="4"/>
       <c r="L79" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H80" s="4"/>
       <c r="L80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H81" s="4"/>
       <c r="L81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H82" s="4"/>
       <c r="L82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+    </row>
+    <row r="83" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H86" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6875,6 +6562,11 @@
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H86">
+      <formula1>"chksum, signature, no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/App_TestWithdrawFund/test.xlsx
+++ b/App_TestWithdrawFund/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPU01661-local\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuti\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -566,14 +566,14 @@
   <dimension ref="A1:M707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1" collapsed="1"/>
@@ -6549,18 +6549,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H86">

--- a/App_TestWithdrawFund/test.xlsx
+++ b/App_TestWithdrawFund/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuti\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPU01661-local\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -100,12 +100,6 @@
     <t>tn</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>1122334456</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -121,23 +115,30 @@
     <t>amt-0</t>
   </si>
   <si>
-    <t>1122334457</t>
-  </si>
-  <si>
-    <t>100001</t>
-  </si>
-  <si>
     <t>security</t>
   </si>
   <si>
+    <t>-100000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>a8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,13 +499,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="81" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="81.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,20 +567,20 @@
   <dimension ref="A1:M707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -621,7 +622,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>12</v>
@@ -629,7 +630,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -643,13 +644,13 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -674,25 +675,25 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>1.0</v>
       </c>
       <c r="M4" t="b">
         <f>IF(K4&lt;&gt;"",IF(K4  = L4,TRUE, FALSE),"")</f>
@@ -700,9 +701,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
@@ -716,22 +715,22 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" t="b">
@@ -5815,21 +5814,21 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -5870,14 +5869,14 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -5891,10 +5890,10 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -5903,6 +5902,9 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>10000</v>
@@ -5930,8 +5932,8 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="8">
-        <v>6100</v>
+      <c r="K4" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="L4" t="b">
         <f xml:space="preserve"> IF(J4 &lt;&gt; "",  IF(J4 = K4, TRUE, FALSE), "")</f>
@@ -5939,12 +5941,37 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="4"/>
-      <c r="J5" s="8"/>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
       <c r="K5" s="8"/>
-      <c r="L5" t="str">
+      <c r="L5" t="b">
         <f t="shared" ref="L5:L68" si="0">IF(J5&lt;&gt;"",IF(J5=K5,TRUE,FALSE),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">

--- a/App_TestWithdrawFund/test.xlsx
+++ b/App_TestWithdrawFund/test.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPU01661-local\Documents\GitHub\ToolTestWithdrawFund\App_TestWithdrawFund\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="2" r:id="rId1"/>
-    <sheet name="api_inquireCard" sheetId="3" r:id="rId2"/>
-    <sheet name="api_withdraw" sheetId="4" r:id="rId3"/>
+    <sheet name="hash_data" sheetId="5" r:id="rId2"/>
+    <sheet name="api_inquireCard" sheetId="3" r:id="rId3"/>
+    <sheet name="demo" sheetId="6" r:id="rId4"/>
+    <sheet name="api_withdraw" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -38,12 +40,6 @@
   </si>
   <si>
     <t>TestCase</t>
-  </si>
-  <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <t>amt</t>
   </si>
   <si>
     <t>T160712KWQZ09Q8S</t>
@@ -91,9 +87,6 @@
     <t>Result Real</t>
   </si>
   <si>
-    <t>chksum</t>
-  </si>
-  <si>
     <t>signature</t>
   </si>
   <si>
@@ -124,21 +117,56 @@
     <t>100000</t>
   </si>
   <si>
-    <t>a7</t>
+    <t>Name Data</t>
   </si>
   <si>
-    <t>100</t>
+    <t>Category Hash</t>
   </si>
   <si>
-    <t>a8</t>
+    <t>AES-256</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Kgnk3cpOwDVAtdNfWJ21cCNs3P4IGy81</t>
+  </si>
+  <si>
+    <t>Kgnk3cpOwDVAtdNf</t>
+  </si>
+  <si>
+    <t>chksum-SHA-256</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>http://mi-payment-sandbox.123pay.vn/getBank</t>
+  </si>
+  <si>
+    <t>TRUSTPAY</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>1472035434447</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +178,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,10 +208,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,8 +248,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,96 +531,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="60.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="81.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="60" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="81" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M707"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="8" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"AES-256, RC-4, AES-512"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M707"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -597,23 +691,23 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -622,15 +716,15 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -644,13 +738,13 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -659,41 +753,39 @@
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>1.0</v>
+        <v>21</v>
+      </c>
+      <c r="L4" s="7">
+        <v>5000</v>
       </c>
       <c r="M4" t="b">
         <f>IF(K4&lt;&gt;"",IF(K4  = L4,TRUE, FALSE),"")</f>
@@ -706,33 +798,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
       <c r="M5" t="b">
         <f t="shared" ref="M5:M23" si="0">IF(K5&lt;&gt;"",IF(K5  = L5,TRUE, FALSE),"")</f>
         <v>0</v>
@@ -1033,6 +1127,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
+      <c r="I24" s="4"/>
       <c r="L24" s="2"/>
       <c r="M24" t="str">
         <f t="shared" ref="M24:M44" si="1">IF(K24&lt;&gt;"",IF(K24=L24,TRUE,FALSE),"")</f>
@@ -1041,6 +1136,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
+      <c r="I25" s="4"/>
       <c r="L25" s="2"/>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
@@ -1049,6 +1145,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
+      <c r="I26" s="4"/>
       <c r="L26" s="2"/>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
@@ -5800,8 +5897,8 @@
     <mergeCell ref="I2:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I21">
-      <formula1>"chksum, signature, no"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I26">
+      <formula1>"chksum-SHA-1, chksum-SHA-256, chksum-SHA-512, chksum-MD5, signature, no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5809,26 +5906,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
+      <formula1>"chksum-SHA-1, chksum-SHA-256, chksum-SHA-512, chksum-MD5, signature, no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -5845,22 +6075,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5869,14 +6099,14 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -5890,10 +6120,10 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -5902,29 +6132,26 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>10000</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5932,8 +6159,8 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="n">
-        <v>0.0</v>
+      <c r="K4" s="8">
+        <v>6100</v>
       </c>
       <c r="L4" t="b">
         <f xml:space="preserve"> IF(J4 &lt;&gt; "",  IF(J4 = K4, TRUE, FALSE), "")</f>
@@ -5945,30 +6172,32 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G5">
         <v>100000</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
       <c r="L5" t="b">
         <f t="shared" ref="L5:L68" si="0">IF(J5&lt;&gt;"",IF(J5=K5,TRUE,FALSE),"")</f>
         <v>0</v>
@@ -6589,11 +6818,15 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J1:J3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H86">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30:H86">
       <formula1>"chksum, signature, no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H29">
+      <formula1>"chksum-SHA-1, chksum-SHA-256, chksum-SHA-512, chksum-MD5, signature, no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/App_TestWithdrawFund/test.xlsx
+++ b/App_TestWithdrawFund/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="666" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="payByCard" sheetId="9" r:id="rId7"/>
     <sheet name="authenticatePayer" sheetId="10" r:id="rId8"/>
     <sheet name="verifyPayment" sheetId="6" r:id="rId9"/>
+    <sheet name="notify" sheetId="12" r:id="rId10"/>
+    <sheet name="verifyCard" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -172,9 +174,6 @@
     <t>data-0</t>
   </si>
   <si>
-    <t>orderNo</t>
-  </si>
-  <si>
     <t>caller,"|",data,"a"</t>
   </si>
   <si>
@@ -265,13 +264,58 @@
     <t>{"type":"otp","value":"12340000"}</t>
   </si>
   <si>
-    <t>123P1609010201455</t>
-  </si>
-  <si>
     <t>verifyPayment</t>
   </si>
   <si>
     <t>http://cpu01661:8080/Bank_Simulator/internal/verifyPayment</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>http://cpu01661:8080/Bank_Simulator/internal/notify</t>
+  </si>
+  <si>
+    <t>bankCode-0</t>
+  </si>
+  <si>
+    <t>orderNo,"b"</t>
+  </si>
+  <si>
+    <t>123P1609050201499</t>
+  </si>
+  <si>
+    <t>verifyCard</t>
+  </si>
+  <si>
+    <t>http://cpu01661:8080/Bank_Simulator/internal/verifyCard</t>
+  </si>
+  <si>
+    <t>cardInfo</t>
+  </si>
+  <si>
+    <t>clientIp-0</t>
+  </si>
+  <si>
+    <t>cardInfo-0</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>RC-4</t>
+  </si>
+  <si>
+    <t>This is 16 bytes</t>
+  </si>
+  <si>
+    <t>cardInfo,clientIp,orderNo,"b"</t>
+  </si>
+  <si>
+    <t>123P1609060201572</t>
+  </si>
+  <si>
+    <t>9704311111111111|NGUYEN VAN A|08/16</t>
   </si>
 </sst>
 </file>
@@ -342,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +421,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,9 +440,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,7 +727,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +772,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -739,32 +790,32 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -773,15 +824,15 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -790,15 +841,15 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -807,15 +858,15 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -824,29 +875,57 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
+      <c r="B15" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -857,9 +936,311 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G2">
+      <formula1>"String, Integer, Object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
+      <formula1>"chksum-SHA-1, chksum-SHA-256, chksum-SHA-512, chksum-MD5, signature-RSA-SHA1, no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
+      <formula1>"chksum-SHA-1, chksum-SHA-256, chksum-SHA-512, chksum-MD5, signature-RSA-SHA1, no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:H2">
+      <formula1>"String, Integer, Object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -868,10 +1249,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,10 +1300,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -934,13 +1315,28 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"AES-256, RC-4, AES-512"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -966,86 +1362,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="14"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="13" t="s">
         <v>43</v>
       </c>
@@ -1055,18 +1451,18 @@
       <c r="H4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1076,11 +1472,11 @@
       <c r="H5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1100,7 +1496,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>23</v>
@@ -1115,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" t="b">
         <f>IF(K6&lt;&gt;"",IF(K6  = L6,TRUE, FALSE),"")</f>
@@ -1140,7 +1536,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>23</v>
@@ -6266,112 +6662,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -6402,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" t="b">
         <f xml:space="preserve"> IF(J6 &lt;&gt; "",  IF(J6 = K6, TRUE, FALSE), "")</f>
@@ -7083,42 +7479,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
@@ -7131,60 +7527,60 @@
       <c r="H2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -7210,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7340,121 +7736,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="14"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -7473,7 +7869,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>23</v>
@@ -7536,94 +7932,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="15" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="14"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="13" t="s">
         <v>43</v>
       </c>
@@ -7633,33 +8029,33 @@
       <c r="I4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="14"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -7678,13 +8074,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>31</v>
@@ -7744,121 +8140,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="14"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -7877,10 +8273,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>31</v>
@@ -7922,8 +8318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7936,71 +8332,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -8011,10 +8404,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -8023,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
